--- a/USA/Tables/UCA.xlsx
+++ b/USA/Tables/UCA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="894" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="894" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Самопроверка" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="249">
   <si>
     <t>device</t>
   </si>
@@ -796,18 +796,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -963,12 +966,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,6 +980,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1370,7 +1373,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2589,7 +2592,7 @@
       <c r="F54" s="3">
         <v>8</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="G54" s="29" t="s">
         <v>248</v>
       </c>
     </row>
@@ -3093,7 +3096,7 @@
       <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3504,7 +3507,7 @@
       <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3771,7 +3774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ402"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -3780,7 +3783,7 @@
     <col min="1" max="4" width="35.7109375" style="8"/>
     <col min="5" max="5" width="47.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="14" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="26" customWidth="1"/>
     <col min="8" max="1024" width="35.7109375" style="8"/>
   </cols>
   <sheetData>
@@ -3803,7 +3806,7 @@
       <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3826,7 +3829,7 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3849,7 +3852,7 @@
       <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3872,7 +3875,7 @@
       <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3895,7 +3898,7 @@
       <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3918,7 +3921,7 @@
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3941,7 +3944,7 @@
       <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3964,7 +3967,7 @@
       <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3987,7 +3990,7 @@
       <c r="F9" s="7">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4010,7 +4013,7 @@
       <c r="F10" s="7">
         <v>1</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4033,7 +4036,7 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4056,7 +4059,7 @@
       <c r="F12" s="7">
         <v>1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4079,7 +4082,7 @@
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4102,7 +4105,7 @@
       <c r="F14" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4125,7 +4128,7 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="28">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4151,7 @@
       <c r="F16" s="7">
         <v>1</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4171,7 +4174,7 @@
       <c r="F17" s="7">
         <v>1</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4197,7 @@
       <c r="F18" s="7">
         <v>1</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4217,7 +4220,7 @@
       <c r="F19" s="7">
         <v>1</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4240,7 +4243,7 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -4263,7 +4266,7 @@
       <c r="F21" s="7">
         <v>1</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4286,7 +4289,7 @@
       <c r="F22" s="7">
         <v>1</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4312,7 @@
       <c r="F23" s="7">
         <v>1</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4332,7 +4335,7 @@
       <c r="F24" s="7">
         <v>1</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4355,7 +4358,7 @@
       <c r="F25" s="7">
         <v>1</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4378,7 +4381,7 @@
       <c r="F26" s="7">
         <v>1</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4401,7 +4404,7 @@
       <c r="F27" s="7">
         <v>1</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4427,7 @@
       <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4447,7 +4450,7 @@
       <c r="F29" s="7">
         <v>1</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4473,7 @@
       <c r="F30" s="7">
         <v>1</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4493,7 +4496,7 @@
       <c r="F31" s="7">
         <v>1</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -4516,7 +4519,7 @@
       <c r="F32" s="7">
         <v>1</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4539,7 +4542,7 @@
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4562,7 +4565,7 @@
       <c r="F34" s="7">
         <v>2</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4585,7 +4588,7 @@
       <c r="F35" s="7">
         <v>2</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4608,7 +4611,7 @@
       <c r="F36" s="7">
         <v>2</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4629,7 +4632,7 @@
       <c r="F37" s="7">
         <v>2</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4652,7 +4655,7 @@
       <c r="F38" s="7">
         <v>2</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4675,7 +4678,7 @@
       <c r="F39" s="7">
         <v>2</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +4701,7 @@
       <c r="F40" s="7">
         <v>2</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4721,7 +4724,7 @@
       <c r="F41" s="7">
         <v>2</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4747,7 @@
       <c r="F42" s="7">
         <v>2</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4767,7 +4770,7 @@
       <c r="F43" s="7">
         <v>2</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4790,7 +4793,7 @@
       <c r="F44" s="7">
         <v>2</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4813,7 +4816,7 @@
       <c r="F45" s="7">
         <v>2</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4836,7 +4839,7 @@
       <c r="F46" s="7">
         <v>2</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4859,7 +4862,7 @@
       <c r="F47" s="7">
         <v>2</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4882,7 +4885,7 @@
       <c r="F48" s="7">
         <v>2</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4905,7 +4908,7 @@
       <c r="F49" s="7">
         <v>2</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4928,7 +4931,7 @@
       <c r="F50" s="7">
         <v>2</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4951,7 +4954,7 @@
       <c r="F51" s="7">
         <v>2</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -4974,7 +4977,7 @@
       <c r="F52" s="7">
         <v>2</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4997,7 +5000,7 @@
       <c r="F53" s="7">
         <v>2</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5020,7 +5023,7 @@
       <c r="F54" s="7">
         <v>2</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5043,7 +5046,7 @@
       <c r="F55" s="7">
         <v>2</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5066,7 +5069,7 @@
       <c r="F56" s="7">
         <v>2</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5089,7 +5092,7 @@
       <c r="F57" s="7">
         <v>2</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5112,7 +5115,7 @@
       <c r="F58" s="7">
         <v>2</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5135,7 +5138,7 @@
       <c r="F59" s="7">
         <v>2</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5158,7 +5161,7 @@
       <c r="F60" s="7">
         <v>2</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5181,7 +5184,7 @@
       <c r="F61" s="7">
         <v>2</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5204,7 +5207,7 @@
       <c r="F62" s="7">
         <v>2</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -5227,7 +5230,7 @@
       <c r="F63" s="7">
         <v>2</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5250,7 +5253,7 @@
       <c r="F64" s="7">
         <v>2</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5273,7 +5276,7 @@
       <c r="F65" s="7">
         <v>3</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5296,7 +5299,7 @@
       <c r="F66" s="7">
         <v>3</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5319,7 +5322,7 @@
       <c r="F67" s="7">
         <v>3</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5342,7 +5345,7 @@
       <c r="F68" s="7">
         <v>3</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5365,7 +5368,7 @@
       <c r="F69" s="7">
         <v>3</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5388,7 +5391,7 @@
       <c r="F70" s="7">
         <v>3</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +5416,7 @@
       <c r="F71" s="7">
         <v>3</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5436,7 +5439,7 @@
       <c r="F72" s="7">
         <v>3</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5459,7 +5462,7 @@
       <c r="F73" s="7">
         <v>3</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5486,7 @@
       <c r="F74" s="7">
         <v>3</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5506,7 +5509,7 @@
       <c r="F75" s="7">
         <v>3</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5529,7 +5532,7 @@
       <c r="F76" s="7">
         <v>3</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5553,7 +5556,7 @@
       <c r="F77" s="7">
         <v>3</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5576,7 +5579,7 @@
       <c r="F78" s="7">
         <v>3</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5599,7 +5602,7 @@
       <c r="F79" s="7">
         <v>3</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5624,7 +5627,7 @@
       <c r="F80" s="7">
         <v>3</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5647,7 +5650,7 @@
       <c r="F81" s="7">
         <v>3</v>
       </c>
-      <c r="G81" s="28">
+      <c r="G81" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5670,7 +5673,7 @@
       <c r="F82" s="7">
         <v>3</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5694,7 +5697,7 @@
       <c r="F83" s="7">
         <v>3</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5717,7 +5720,7 @@
       <c r="F84" s="7">
         <v>3</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5740,7 +5743,7 @@
       <c r="F85" s="7">
         <v>3</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5764,7 +5767,7 @@
       <c r="F86" s="7">
         <v>3</v>
       </c>
-      <c r="G86" s="28">
+      <c r="G86" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5787,7 +5790,7 @@
       <c r="F87" s="7">
         <v>3</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5810,7 +5813,7 @@
       <c r="F88" s="7">
         <v>3</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5835,7 +5838,7 @@
       <c r="F89" s="7">
         <v>3</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5858,7 +5861,7 @@
       <c r="F90" s="7">
         <v>3</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5881,7 +5884,7 @@
       <c r="F91" s="7">
         <v>3</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5905,7 +5908,7 @@
       <c r="F92" s="7">
         <v>3</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5928,7 +5931,7 @@
       <c r="F93" s="7">
         <v>3</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5951,7 +5954,7 @@
       <c r="F94" s="7">
         <v>3</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5966,7 +5969,7 @@
         <f>45/1000000</f>
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="D95" s="29">
+      <c r="D95" s="27">
         <v>0.1</v>
       </c>
       <c r="E95" s="18" t="s">
@@ -5975,7 +5978,7 @@
       <c r="F95" s="7">
         <v>3</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -5998,7 +6001,7 @@
       <c r="F96" s="7">
         <v>3</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6021,7 +6024,7 @@
       <c r="F97" s="7">
         <v>3</v>
       </c>
-      <c r="G97" s="28">
+      <c r="G97" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6046,7 +6049,7 @@
       <c r="F98" s="7">
         <v>3</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6069,7 +6072,7 @@
       <c r="F99" s="7">
         <v>3</v>
       </c>
-      <c r="G99" s="28">
+      <c r="G99" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6092,7 +6095,7 @@
       <c r="F100" s="7">
         <v>3</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6116,7 +6119,7 @@
       <c r="F101" s="7">
         <v>3</v>
       </c>
-      <c r="G101" s="28">
+      <c r="G101" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6139,7 +6142,7 @@
       <c r="F102" s="7">
         <v>3</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G102" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6162,7 +6165,7 @@
       <c r="F103" s="7">
         <v>3</v>
       </c>
-      <c r="G103" s="28">
+      <c r="G103" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6186,7 +6189,7 @@
       <c r="F104" s="7">
         <v>3</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6209,7 +6212,7 @@
       <c r="F105" s="7">
         <v>3</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G105" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6232,7 +6235,7 @@
       <c r="F106" s="7">
         <v>3</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G106" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6255,7 +6258,7 @@
       <c r="F107" s="7">
         <v>4</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G107" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6278,7 +6281,7 @@
       <c r="F108" s="7">
         <v>4</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6301,7 +6304,7 @@
       <c r="F109" s="7">
         <v>4</v>
       </c>
-      <c r="G109" s="28">
+      <c r="G109" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6324,7 +6327,7 @@
       <c r="F110" s="7">
         <v>4</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6347,7 +6350,7 @@
       <c r="F111" s="7">
         <v>4</v>
       </c>
-      <c r="G111" s="28">
+      <c r="G111" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6370,7 +6373,7 @@
       <c r="F112" s="7">
         <v>4</v>
       </c>
-      <c r="G112" s="28">
+      <c r="G112" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6395,7 +6398,7 @@
       <c r="F113" s="7">
         <v>4</v>
       </c>
-      <c r="G113" s="28">
+      <c r="G113" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6418,7 +6421,7 @@
       <c r="F114" s="7">
         <v>4</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G114" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6441,7 +6444,7 @@
       <c r="F115" s="7">
         <v>4</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G115" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6465,7 +6468,7 @@
       <c r="F116" s="7">
         <v>4</v>
       </c>
-      <c r="G116" s="28">
+      <c r="G116" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6488,7 +6491,7 @@
       <c r="F117" s="7">
         <v>4</v>
       </c>
-      <c r="G117" s="28">
+      <c r="G117" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6511,7 +6514,7 @@
       <c r="F118" s="7">
         <v>4</v>
       </c>
-      <c r="G118" s="28">
+      <c r="G118" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6535,7 +6538,7 @@
       <c r="F119" s="7">
         <v>4</v>
       </c>
-      <c r="G119" s="28">
+      <c r="G119" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6558,7 +6561,7 @@
       <c r="F120" s="7">
         <v>4</v>
       </c>
-      <c r="G120" s="28">
+      <c r="G120" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6581,7 +6584,7 @@
       <c r="F121" s="7">
         <v>4</v>
       </c>
-      <c r="G121" s="28">
+      <c r="G121" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6606,7 +6609,7 @@
       <c r="F122" s="7">
         <v>4</v>
       </c>
-      <c r="G122" s="28">
+      <c r="G122" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6629,7 +6632,7 @@
       <c r="F123" s="7">
         <v>4</v>
       </c>
-      <c r="G123" s="28">
+      <c r="G123" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6652,7 +6655,7 @@
       <c r="F124" s="7">
         <v>4</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G124" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6676,7 +6679,7 @@
       <c r="F125" s="7">
         <v>4</v>
       </c>
-      <c r="G125" s="28">
+      <c r="G125" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6699,7 +6702,7 @@
       <c r="F126" s="7">
         <v>4</v>
       </c>
-      <c r="G126" s="28">
+      <c r="G126" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6722,7 +6725,7 @@
       <c r="F127" s="7">
         <v>4</v>
       </c>
-      <c r="G127" s="28">
+      <c r="G127" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6746,7 +6749,7 @@
       <c r="F128" s="7">
         <v>4</v>
       </c>
-      <c r="G128" s="28">
+      <c r="G128" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6769,7 +6772,7 @@
       <c r="F129" s="7">
         <v>4</v>
       </c>
-      <c r="G129" s="28">
+      <c r="G129" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +6795,7 @@
       <c r="F130" s="7">
         <v>4</v>
       </c>
-      <c r="G130" s="28">
+      <c r="G130" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6817,7 +6820,7 @@
       <c r="F131" s="7">
         <v>4</v>
       </c>
-      <c r="G131" s="28">
+      <c r="G131" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6840,7 +6843,7 @@
       <c r="F132" s="7">
         <v>4</v>
       </c>
-      <c r="G132" s="28">
+      <c r="G132" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6863,7 +6866,7 @@
       <c r="F133" s="7">
         <v>4</v>
       </c>
-      <c r="G133" s="28">
+      <c r="G133" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6887,7 +6890,7 @@
       <c r="F134" s="7">
         <v>4</v>
       </c>
-      <c r="G134" s="28">
+      <c r="G134" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6910,7 +6913,7 @@
       <c r="F135" s="7">
         <v>4</v>
       </c>
-      <c r="G135" s="28">
+      <c r="G135" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6933,7 +6936,7 @@
       <c r="F136" s="7">
         <v>4</v>
       </c>
-      <c r="G136" s="28">
+      <c r="G136" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6957,7 +6960,7 @@
       <c r="F137" s="7">
         <v>4</v>
       </c>
-      <c r="G137" s="28">
+      <c r="G137" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -6980,7 +6983,7 @@
       <c r="F138" s="7">
         <v>4</v>
       </c>
-      <c r="G138" s="28">
+      <c r="G138" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7003,7 +7006,7 @@
       <c r="F139" s="7">
         <v>4</v>
       </c>
-      <c r="G139" s="28">
+      <c r="G139" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7028,7 +7031,7 @@
       <c r="F140" s="7">
         <v>4</v>
       </c>
-      <c r="G140" s="28">
+      <c r="G140" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7051,7 +7054,7 @@
       <c r="F141" s="7">
         <v>4</v>
       </c>
-      <c r="G141" s="28">
+      <c r="G141" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7074,7 +7077,7 @@
       <c r="F142" s="7">
         <v>4</v>
       </c>
-      <c r="G142" s="28">
+      <c r="G142" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7098,7 +7101,7 @@
       <c r="F143" s="7">
         <v>4</v>
       </c>
-      <c r="G143" s="28">
+      <c r="G143" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7121,7 +7124,7 @@
       <c r="F144" s="7">
         <v>4</v>
       </c>
-      <c r="G144" s="28">
+      <c r="G144" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7144,7 +7147,7 @@
       <c r="F145" s="7">
         <v>4</v>
       </c>
-      <c r="G145" s="28">
+      <c r="G145" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7168,7 +7171,7 @@
       <c r="F146" s="7">
         <v>4</v>
       </c>
-      <c r="G146" s="28">
+      <c r="G146" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -7191,7 +7194,7 @@
       <c r="F147" s="7">
         <v>4</v>
       </c>
-      <c r="G147" s="28">
+      <c r="G147" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7214,7 +7217,7 @@
       <c r="F148" s="7">
         <v>4</v>
       </c>
-      <c r="G148" s="28">
+      <c r="G148" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7237,7 +7240,7 @@
       <c r="F149" s="7">
         <v>5</v>
       </c>
-      <c r="G149" s="28">
+      <c r="G149" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7260,7 +7263,7 @@
       <c r="F150" s="7">
         <v>5</v>
       </c>
-      <c r="G150" s="28">
+      <c r="G150" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7283,7 +7286,7 @@
       <c r="F151" s="7">
         <v>5</v>
       </c>
-      <c r="G151" s="28">
+      <c r="G151" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7306,7 +7309,7 @@
       <c r="F152" s="7">
         <v>5</v>
       </c>
-      <c r="G152" s="28">
+      <c r="G152" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7329,7 +7332,7 @@
       <c r="F153" s="7">
         <v>5</v>
       </c>
-      <c r="G153" s="28">
+      <c r="G153" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7352,7 +7355,7 @@
       <c r="F154" s="7">
         <v>5</v>
       </c>
-      <c r="G154" s="28">
+      <c r="G154" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7377,7 +7380,7 @@
       <c r="F155" s="7">
         <v>5</v>
       </c>
-      <c r="G155" s="28">
+      <c r="G155" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7400,7 +7403,7 @@
       <c r="F156" s="7">
         <v>5</v>
       </c>
-      <c r="G156" s="28">
+      <c r="G156" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7423,7 +7426,7 @@
       <c r="F157" s="7">
         <v>5</v>
       </c>
-      <c r="G157" s="28">
+      <c r="G157" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7447,7 +7450,7 @@
       <c r="F158" s="7">
         <v>5</v>
       </c>
-      <c r="G158" s="28">
+      <c r="G158" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7470,7 +7473,7 @@
       <c r="F159" s="7">
         <v>5</v>
       </c>
-      <c r="G159" s="28">
+      <c r="G159" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7493,7 +7496,7 @@
       <c r="F160" s="7">
         <v>5</v>
       </c>
-      <c r="G160" s="28">
+      <c r="G160" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7517,7 +7520,7 @@
       <c r="F161" s="7">
         <v>5</v>
       </c>
-      <c r="G161" s="28">
+      <c r="G161" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -7540,7 +7543,7 @@
       <c r="F162" s="7">
         <v>5</v>
       </c>
-      <c r="G162" s="28">
+      <c r="G162" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7563,7 +7566,7 @@
       <c r="F163" s="7">
         <v>5</v>
       </c>
-      <c r="G163" s="28">
+      <c r="G163" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7588,7 +7591,7 @@
       <c r="F164" s="7">
         <v>5</v>
       </c>
-      <c r="G164" s="28">
+      <c r="G164" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7611,7 +7614,7 @@
       <c r="F165" s="7">
         <v>5</v>
       </c>
-      <c r="G165" s="28">
+      <c r="G165" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7637,7 @@
       <c r="F166" s="7">
         <v>5</v>
       </c>
-      <c r="G166" s="28">
+      <c r="G166" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7658,7 +7661,7 @@
       <c r="F167" s="7">
         <v>5</v>
       </c>
-      <c r="G167" s="28">
+      <c r="G167" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7681,7 +7684,7 @@
       <c r="F168" s="7">
         <v>5</v>
       </c>
-      <c r="G168" s="28">
+      <c r="G168" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7704,7 +7707,7 @@
       <c r="F169" s="7">
         <v>5</v>
       </c>
-      <c r="G169" s="28">
+      <c r="G169" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7728,7 +7731,7 @@
       <c r="F170" s="7">
         <v>5</v>
       </c>
-      <c r="G170" s="28">
+      <c r="G170" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -7751,7 +7754,7 @@
       <c r="F171" s="7">
         <v>5</v>
       </c>
-      <c r="G171" s="28">
+      <c r="G171" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7774,7 +7777,7 @@
       <c r="F172" s="7">
         <v>5</v>
       </c>
-      <c r="G172" s="28">
+      <c r="G172" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7799,7 +7802,7 @@
       <c r="F173" s="7">
         <v>5</v>
       </c>
-      <c r="G173" s="28">
+      <c r="G173" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7822,7 +7825,7 @@
       <c r="F174" s="7">
         <v>5</v>
       </c>
-      <c r="G174" s="28">
+      <c r="G174" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7845,7 +7848,7 @@
       <c r="F175" s="7">
         <v>5</v>
       </c>
-      <c r="G175" s="28">
+      <c r="G175" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7869,7 +7872,7 @@
       <c r="F176" s="7">
         <v>5</v>
       </c>
-      <c r="G176" s="28">
+      <c r="G176" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7892,7 +7895,7 @@
       <c r="F177" s="7">
         <v>5</v>
       </c>
-      <c r="G177" s="28">
+      <c r="G177" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7915,7 +7918,7 @@
       <c r="F178" s="7">
         <v>5</v>
       </c>
-      <c r="G178" s="28">
+      <c r="G178" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7939,7 +7942,7 @@
       <c r="F179" s="7">
         <v>5</v>
       </c>
-      <c r="G179" s="28">
+      <c r="G179" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -7962,7 +7965,7 @@
       <c r="F180" s="7">
         <v>5</v>
       </c>
-      <c r="G180" s="28">
+      <c r="G180" s="26">
         <v>0</v>
       </c>
     </row>
@@ -7985,7 +7988,7 @@
       <c r="F181" s="7">
         <v>5</v>
       </c>
-      <c r="G181" s="28">
+      <c r="G181" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8010,7 +8013,7 @@
       <c r="F182" s="7">
         <v>5</v>
       </c>
-      <c r="G182" s="28">
+      <c r="G182" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8033,7 +8036,7 @@
       <c r="F183" s="7">
         <v>5</v>
       </c>
-      <c r="G183" s="28">
+      <c r="G183" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8056,7 +8059,7 @@
       <c r="F184" s="7">
         <v>5</v>
       </c>
-      <c r="G184" s="28">
+      <c r="G184" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8080,7 +8083,7 @@
       <c r="F185" s="7">
         <v>5</v>
       </c>
-      <c r="G185" s="28">
+      <c r="G185" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8103,7 +8106,7 @@
       <c r="F186" s="7">
         <v>5</v>
       </c>
-      <c r="G186" s="28">
+      <c r="G186" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8126,7 +8129,7 @@
       <c r="F187" s="7">
         <v>5</v>
       </c>
-      <c r="G187" s="28">
+      <c r="G187" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8150,7 +8153,7 @@
       <c r="F188" s="7">
         <v>5</v>
       </c>
-      <c r="G188" s="28">
+      <c r="G188" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8173,7 +8176,7 @@
       <c r="F189" s="7">
         <v>5</v>
       </c>
-      <c r="G189" s="28">
+      <c r="G189" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8196,7 +8199,7 @@
       <c r="F190" s="7">
         <v>5</v>
       </c>
-      <c r="G190" s="28">
+      <c r="G190" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8219,7 +8222,7 @@
       <c r="F191" s="7">
         <v>6</v>
       </c>
-      <c r="G191" s="28">
+      <c r="G191" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8242,7 +8245,7 @@
       <c r="F192" s="7">
         <v>6</v>
       </c>
-      <c r="G192" s="28">
+      <c r="G192" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8265,7 +8268,7 @@
       <c r="F193" s="7">
         <v>6</v>
       </c>
-      <c r="G193" s="28">
+      <c r="G193" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8288,7 +8291,7 @@
       <c r="F194" s="7">
         <v>6</v>
       </c>
-      <c r="G194" s="28">
+      <c r="G194" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8311,7 +8314,7 @@
       <c r="F195" s="7">
         <v>6</v>
       </c>
-      <c r="G195" s="28">
+      <c r="G195" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8334,7 +8337,7 @@
       <c r="F196" s="7">
         <v>6</v>
       </c>
-      <c r="G196" s="28">
+      <c r="G196" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8359,7 +8362,7 @@
       <c r="F197" s="7">
         <v>6</v>
       </c>
-      <c r="G197" s="28">
+      <c r="G197" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8382,7 +8385,7 @@
       <c r="F198" s="7">
         <v>6</v>
       </c>
-      <c r="G198" s="28">
+      <c r="G198" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8405,7 +8408,7 @@
       <c r="F199" s="7">
         <v>6</v>
       </c>
-      <c r="G199" s="28">
+      <c r="G199" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8429,7 +8432,7 @@
       <c r="F200" s="7">
         <v>6</v>
       </c>
-      <c r="G200" s="28">
+      <c r="G200" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8452,7 +8455,7 @@
       <c r="F201" s="7">
         <v>6</v>
       </c>
-      <c r="G201" s="28">
+      <c r="G201" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8475,7 +8478,7 @@
       <c r="F202" s="7">
         <v>6</v>
       </c>
-      <c r="G202" s="28">
+      <c r="G202" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8499,7 +8502,7 @@
       <c r="F203" s="7">
         <v>6</v>
       </c>
-      <c r="G203" s="28">
+      <c r="G203" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8522,7 +8525,7 @@
       <c r="F204" s="7">
         <v>6</v>
       </c>
-      <c r="G204" s="28">
+      <c r="G204" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8545,7 +8548,7 @@
       <c r="F205" s="7">
         <v>6</v>
       </c>
-      <c r="G205" s="28">
+      <c r="G205" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8570,7 +8573,7 @@
       <c r="F206" s="7">
         <v>6</v>
       </c>
-      <c r="G206" s="28">
+      <c r="G206" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8593,7 +8596,7 @@
       <c r="F207" s="7">
         <v>6</v>
       </c>
-      <c r="G207" s="28">
+      <c r="G207" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8616,7 +8619,7 @@
       <c r="F208" s="7">
         <v>6</v>
       </c>
-      <c r="G208" s="28">
+      <c r="G208" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8640,7 +8643,7 @@
       <c r="F209" s="7">
         <v>6</v>
       </c>
-      <c r="G209" s="28">
+      <c r="G209" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8663,7 +8666,7 @@
       <c r="F210" s="7">
         <v>6</v>
       </c>
-      <c r="G210" s="28">
+      <c r="G210" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8686,7 +8689,7 @@
       <c r="F211" s="7">
         <v>6</v>
       </c>
-      <c r="G211" s="28">
+      <c r="G211" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8710,7 +8713,7 @@
       <c r="F212" s="7">
         <v>6</v>
       </c>
-      <c r="G212" s="28">
+      <c r="G212" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8733,7 +8736,7 @@
       <c r="F213" s="7">
         <v>6</v>
       </c>
-      <c r="G213" s="28">
+      <c r="G213" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8756,7 +8759,7 @@
       <c r="F214" s="7">
         <v>6</v>
       </c>
-      <c r="G214" s="28">
+      <c r="G214" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8781,7 +8784,7 @@
       <c r="F215" s="7">
         <v>6</v>
       </c>
-      <c r="G215" s="28">
+      <c r="G215" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8804,7 +8807,7 @@
       <c r="F216" s="7">
         <v>6</v>
       </c>
-      <c r="G216" s="28">
+      <c r="G216" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8827,7 +8830,7 @@
       <c r="F217" s="7">
         <v>6</v>
       </c>
-      <c r="G217" s="28">
+      <c r="G217" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8851,7 +8854,7 @@
       <c r="F218" s="7">
         <v>6</v>
       </c>
-      <c r="G218" s="28">
+      <c r="G218" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8874,7 +8877,7 @@
       <c r="F219" s="7">
         <v>6</v>
       </c>
-      <c r="G219" s="28">
+      <c r="G219" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8897,7 +8900,7 @@
       <c r="F220" s="7">
         <v>6</v>
       </c>
-      <c r="G220" s="28">
+      <c r="G220" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8921,7 +8924,7 @@
       <c r="F221" s="7">
         <v>6</v>
       </c>
-      <c r="G221" s="28">
+      <c r="G221" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -8944,7 +8947,7 @@
       <c r="F222" s="7">
         <v>6</v>
       </c>
-      <c r="G222" s="28">
+      <c r="G222" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8967,7 +8970,7 @@
       <c r="F223" s="7">
         <v>6</v>
       </c>
-      <c r="G223" s="28">
+      <c r="G223" s="26">
         <v>0</v>
       </c>
     </row>
@@ -8992,7 +8995,7 @@
       <c r="F224" s="7">
         <v>6</v>
       </c>
-      <c r="G224" s="28">
+      <c r="G224" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9015,7 +9018,7 @@
       <c r="F225" s="7">
         <v>6</v>
       </c>
-      <c r="G225" s="28">
+      <c r="G225" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9038,7 +9041,7 @@
       <c r="F226" s="7">
         <v>6</v>
       </c>
-      <c r="G226" s="28">
+      <c r="G226" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9062,7 +9065,7 @@
       <c r="F227" s="7">
         <v>6</v>
       </c>
-      <c r="G227" s="28">
+      <c r="G227" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9085,7 +9088,7 @@
       <c r="F228" s="7">
         <v>6</v>
       </c>
-      <c r="G228" s="28">
+      <c r="G228" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9108,7 +9111,7 @@
       <c r="F229" s="7">
         <v>6</v>
       </c>
-      <c r="G229" s="28">
+      <c r="G229" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9132,7 +9135,7 @@
       <c r="F230" s="7">
         <v>6</v>
       </c>
-      <c r="G230" s="28">
+      <c r="G230" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -9155,7 +9158,7 @@
       <c r="F231" s="7">
         <v>6</v>
       </c>
-      <c r="G231" s="28">
+      <c r="G231" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9178,7 +9181,7 @@
       <c r="F232" s="7">
         <v>6</v>
       </c>
-      <c r="G232" s="28">
+      <c r="G232" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9201,7 +9204,7 @@
       <c r="F233" s="7">
         <v>7</v>
       </c>
-      <c r="G233" s="28">
+      <c r="G233" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9224,7 +9227,7 @@
       <c r="F234" s="7">
         <v>7</v>
       </c>
-      <c r="G234" s="28">
+      <c r="G234" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9247,7 +9250,7 @@
       <c r="F235" s="7">
         <v>7</v>
       </c>
-      <c r="G235" s="28">
+      <c r="G235" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9270,7 +9273,7 @@
       <c r="F236" s="7">
         <v>7</v>
       </c>
-      <c r="G236" s="28">
+      <c r="G236" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9293,7 +9296,7 @@
       <c r="F237" s="7">
         <v>7</v>
       </c>
-      <c r="G237" s="28">
+      <c r="G237" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9316,7 +9319,7 @@
       <c r="F238" s="7">
         <v>7</v>
       </c>
-      <c r="G238" s="28">
+      <c r="G238" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9341,7 +9344,7 @@
       <c r="F239" s="7">
         <v>7</v>
       </c>
-      <c r="G239" s="28">
+      <c r="G239" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9364,7 +9367,7 @@
       <c r="F240" s="7">
         <v>7</v>
       </c>
-      <c r="G240" s="28">
+      <c r="G240" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9387,7 +9390,7 @@
       <c r="F241" s="7">
         <v>7</v>
       </c>
-      <c r="G241" s="28">
+      <c r="G241" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9411,7 +9414,7 @@
       <c r="F242" s="7">
         <v>7</v>
       </c>
-      <c r="G242" s="28">
+      <c r="G242" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9434,7 +9437,7 @@
       <c r="F243" s="7">
         <v>7</v>
       </c>
-      <c r="G243" s="28">
+      <c r="G243" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9457,7 +9460,7 @@
       <c r="F244" s="7">
         <v>7</v>
       </c>
-      <c r="G244" s="28">
+      <c r="G244" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9481,7 +9484,7 @@
       <c r="F245" s="7">
         <v>7</v>
       </c>
-      <c r="G245" s="28">
+      <c r="G245" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -9504,7 +9507,7 @@
       <c r="F246" s="7">
         <v>7</v>
       </c>
-      <c r="G246" s="28">
+      <c r="G246" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9527,7 +9530,7 @@
       <c r="F247" s="7">
         <v>7</v>
       </c>
-      <c r="G247" s="28">
+      <c r="G247" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9551,7 +9554,7 @@
       <c r="F248" s="7">
         <v>7</v>
       </c>
-      <c r="G248" s="28">
+      <c r="G248" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9574,7 +9577,7 @@
       <c r="F249" s="7">
         <v>7</v>
       </c>
-      <c r="G249" s="28">
+      <c r="G249" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9597,7 +9600,7 @@
       <c r="F250" s="7">
         <v>7</v>
       </c>
-      <c r="G250" s="28">
+      <c r="G250" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9621,7 +9624,7 @@
       <c r="F251" s="7">
         <v>7</v>
       </c>
-      <c r="G251" s="28">
+      <c r="G251" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9644,7 +9647,7 @@
       <c r="F252" s="7">
         <v>7</v>
       </c>
-      <c r="G252" s="28">
+      <c r="G252" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9667,7 +9670,7 @@
       <c r="F253" s="7">
         <v>7</v>
       </c>
-      <c r="G253" s="28">
+      <c r="G253" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9690,7 +9693,7 @@
       <c r="F254" s="7">
         <v>7</v>
       </c>
-      <c r="G254" s="28">
+      <c r="G254" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -9713,7 +9716,7 @@
       <c r="F255" s="7">
         <v>7</v>
       </c>
-      <c r="G255" s="28">
+      <c r="G255" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9736,7 +9739,7 @@
       <c r="F256" s="7">
         <v>7</v>
       </c>
-      <c r="G256" s="28">
+      <c r="G256" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9761,7 +9764,7 @@
       <c r="F257" s="7">
         <v>7</v>
       </c>
-      <c r="G257" s="28">
+      <c r="G257" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9784,7 +9787,7 @@
       <c r="F258" s="7">
         <v>7</v>
       </c>
-      <c r="G258" s="28">
+      <c r="G258" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9807,7 +9810,7 @@
       <c r="F259" s="7">
         <v>7</v>
       </c>
-      <c r="G259" s="28">
+      <c r="G259" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9831,7 +9834,7 @@
       <c r="F260" s="7">
         <v>7</v>
       </c>
-      <c r="G260" s="28">
+      <c r="G260" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9854,7 +9857,7 @@
       <c r="F261" s="7">
         <v>7</v>
       </c>
-      <c r="G261" s="28">
+      <c r="G261" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9877,7 +9880,7 @@
       <c r="F262" s="7">
         <v>7</v>
       </c>
-      <c r="G262" s="28">
+      <c r="G262" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9901,7 +9904,7 @@
       <c r="F263" s="7">
         <v>7</v>
       </c>
-      <c r="G263" s="28">
+      <c r="G263" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -9924,7 +9927,7 @@
       <c r="F264" s="7">
         <v>7</v>
       </c>
-      <c r="G264" s="28">
+      <c r="G264" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9947,7 +9950,7 @@
       <c r="F265" s="7">
         <v>7</v>
       </c>
-      <c r="G265" s="28">
+      <c r="G265" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9972,7 +9975,7 @@
       <c r="F266" s="7">
         <v>7</v>
       </c>
-      <c r="G266" s="28">
+      <c r="G266" s="26">
         <v>0</v>
       </c>
     </row>
@@ -9995,7 +9998,7 @@
       <c r="F267" s="7">
         <v>7</v>
       </c>
-      <c r="G267" s="28">
+      <c r="G267" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10018,7 +10021,7 @@
       <c r="F268" s="7">
         <v>7</v>
       </c>
-      <c r="G268" s="28">
+      <c r="G268" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10042,7 +10045,7 @@
       <c r="F269" s="7">
         <v>7</v>
       </c>
-      <c r="G269" s="28">
+      <c r="G269" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10065,7 +10068,7 @@
       <c r="F270" s="7">
         <v>7</v>
       </c>
-      <c r="G270" s="28">
+      <c r="G270" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10088,7 +10091,7 @@
       <c r="F271" s="7">
         <v>7</v>
       </c>
-      <c r="G271" s="28">
+      <c r="G271" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10112,7 +10115,7 @@
       <c r="F272" s="7">
         <v>7</v>
       </c>
-      <c r="G272" s="28">
+      <c r="G272" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10135,7 +10138,7 @@
       <c r="F273" s="7">
         <v>7</v>
       </c>
-      <c r="G273" s="28">
+      <c r="G273" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10158,7 +10161,7 @@
       <c r="F274" s="7">
         <v>7</v>
       </c>
-      <c r="G274" s="28">
+      <c r="G274" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10181,7 +10184,7 @@
       <c r="F275" s="7">
         <v>8</v>
       </c>
-      <c r="G275" s="28">
+      <c r="G275" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10204,7 +10207,7 @@
       <c r="F276" s="7">
         <v>8</v>
       </c>
-      <c r="G276" s="28">
+      <c r="G276" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10227,7 +10230,7 @@
       <c r="F277" s="7">
         <v>8</v>
       </c>
-      <c r="G277" s="28">
+      <c r="G277" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10250,7 +10253,7 @@
       <c r="F278" s="7">
         <v>8</v>
       </c>
-      <c r="G278" s="28">
+      <c r="G278" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10273,7 +10276,7 @@
       <c r="F279" s="7">
         <v>8</v>
       </c>
-      <c r="G279" s="28">
+      <c r="G279" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10296,7 +10299,7 @@
       <c r="F280" s="7">
         <v>8</v>
       </c>
-      <c r="G280" s="28">
+      <c r="G280" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10321,7 +10324,7 @@
       <c r="F281" s="7">
         <v>8</v>
       </c>
-      <c r="G281" s="28">
+      <c r="G281" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10344,7 +10347,7 @@
       <c r="F282" s="7">
         <v>8</v>
       </c>
-      <c r="G282" s="28">
+      <c r="G282" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10367,7 +10370,7 @@
       <c r="F283" s="7">
         <v>8</v>
       </c>
-      <c r="G283" s="28">
+      <c r="G283" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10391,7 +10394,7 @@
       <c r="F284" s="7">
         <v>8</v>
       </c>
-      <c r="G284" s="28">
+      <c r="G284" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10414,7 +10417,7 @@
       <c r="F285" s="7">
         <v>8</v>
       </c>
-      <c r="G285" s="28">
+      <c r="G285" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10437,7 +10440,7 @@
       <c r="F286" s="7">
         <v>8</v>
       </c>
-      <c r="G286" s="28">
+      <c r="G286" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10461,7 +10464,7 @@
       <c r="F287" s="7">
         <v>8</v>
       </c>
-      <c r="G287" s="28">
+      <c r="G287" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10484,7 +10487,7 @@
       <c r="F288" s="7">
         <v>8</v>
       </c>
-      <c r="G288" s="28">
+      <c r="G288" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10507,7 +10510,7 @@
       <c r="F289" s="7">
         <v>8</v>
       </c>
-      <c r="G289" s="28">
+      <c r="G289" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10532,7 +10535,7 @@
       <c r="F290" s="7">
         <v>8</v>
       </c>
-      <c r="G290" s="28">
+      <c r="G290" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10555,7 +10558,7 @@
       <c r="F291" s="7">
         <v>8</v>
       </c>
-      <c r="G291" s="28">
+      <c r="G291" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10578,7 +10581,7 @@
       <c r="F292" s="7">
         <v>8</v>
       </c>
-      <c r="G292" s="28">
+      <c r="G292" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10602,7 +10605,7 @@
       <c r="F293" s="7">
         <v>8</v>
       </c>
-      <c r="G293" s="28">
+      <c r="G293" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10625,7 +10628,7 @@
       <c r="F294" s="7">
         <v>8</v>
       </c>
-      <c r="G294" s="28">
+      <c r="G294" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10648,7 +10651,7 @@
       <c r="F295" s="7">
         <v>8</v>
       </c>
-      <c r="G295" s="28">
+      <c r="G295" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10672,7 +10675,7 @@
       <c r="F296" s="7">
         <v>8</v>
       </c>
-      <c r="G296" s="28">
+      <c r="G296" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10695,7 +10698,7 @@
       <c r="F297" s="7">
         <v>8</v>
       </c>
-      <c r="G297" s="28">
+      <c r="G297" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10718,7 +10721,7 @@
       <c r="F298" s="7">
         <v>8</v>
       </c>
-      <c r="G298" s="28">
+      <c r="G298" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10743,7 +10746,7 @@
       <c r="F299" s="7">
         <v>8</v>
       </c>
-      <c r="G299" s="28">
+      <c r="G299" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10766,7 +10769,7 @@
       <c r="F300" s="7">
         <v>8</v>
       </c>
-      <c r="G300" s="28">
+      <c r="G300" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10789,7 +10792,7 @@
       <c r="F301" s="7">
         <v>8</v>
       </c>
-      <c r="G301" s="28">
+      <c r="G301" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10813,7 +10816,7 @@
       <c r="F302" s="7">
         <v>8</v>
       </c>
-      <c r="G302" s="28">
+      <c r="G302" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10836,7 +10839,7 @@
       <c r="F303" s="7">
         <v>8</v>
       </c>
-      <c r="G303" s="28">
+      <c r="G303" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10859,7 +10862,7 @@
       <c r="F304" s="7">
         <v>8</v>
       </c>
-      <c r="G304" s="28">
+      <c r="G304" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10883,7 +10886,7 @@
       <c r="F305" s="7">
         <v>8</v>
       </c>
-      <c r="G305" s="28">
+      <c r="G305" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -10906,7 +10909,7 @@
       <c r="F306" s="7">
         <v>8</v>
       </c>
-      <c r="G306" s="28">
+      <c r="G306" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10929,7 +10932,7 @@
       <c r="F307" s="7">
         <v>8</v>
       </c>
-      <c r="G307" s="28">
+      <c r="G307" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10954,7 +10957,7 @@
       <c r="F308" s="7">
         <v>8</v>
       </c>
-      <c r="G308" s="28">
+      <c r="G308" s="26">
         <v>0</v>
       </c>
     </row>
@@ -10977,7 +10980,7 @@
       <c r="F309" s="7">
         <v>8</v>
       </c>
-      <c r="G309" s="28">
+      <c r="G309" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11000,7 +11003,7 @@
       <c r="F310" s="7">
         <v>8</v>
       </c>
-      <c r="G310" s="28">
+      <c r="G310" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11024,7 +11027,7 @@
       <c r="F311" s="7">
         <v>8</v>
       </c>
-      <c r="G311" s="28">
+      <c r="G311" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11047,7 +11050,7 @@
       <c r="F312" s="7">
         <v>8</v>
       </c>
-      <c r="G312" s="28">
+      <c r="G312" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11070,7 +11073,7 @@
       <c r="F313" s="7">
         <v>8</v>
       </c>
-      <c r="G313" s="28">
+      <c r="G313" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11094,7 +11097,7 @@
       <c r="F314" s="7">
         <v>8</v>
       </c>
-      <c r="G314" s="28">
+      <c r="G314" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -11117,7 +11120,7 @@
       <c r="F315" s="7">
         <v>8</v>
       </c>
-      <c r="G315" s="28">
+      <c r="G315" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11140,7 +11143,7 @@
       <c r="F316" s="7">
         <v>8</v>
       </c>
-      <c r="G316" s="28">
+      <c r="G316" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11163,7 +11166,7 @@
       <c r="F317" s="7">
         <v>9</v>
       </c>
-      <c r="G317" s="28">
+      <c r="G317" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11186,7 +11189,7 @@
       <c r="F318" s="7">
         <v>9</v>
       </c>
-      <c r="G318" s="28">
+      <c r="G318" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11209,7 +11212,7 @@
       <c r="F319" s="7">
         <v>9</v>
       </c>
-      <c r="G319" s="28">
+      <c r="G319" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11232,7 +11235,7 @@
       <c r="F320" s="7">
         <v>9</v>
       </c>
-      <c r="G320" s="28">
+      <c r="G320" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11255,7 +11258,7 @@
       <c r="F321" s="7">
         <v>9</v>
       </c>
-      <c r="G321" s="28">
+      <c r="G321" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11278,7 +11281,7 @@
       <c r="F322" s="7">
         <v>9</v>
       </c>
-      <c r="G322" s="28">
+      <c r="G322" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11303,7 +11306,7 @@
       <c r="F323" s="7">
         <v>9</v>
       </c>
-      <c r="G323" s="28">
+      <c r="G323" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11326,7 +11329,7 @@
       <c r="F324" s="7">
         <v>9</v>
       </c>
-      <c r="G324" s="28">
+      <c r="G324" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11349,7 +11352,7 @@
       <c r="F325" s="7">
         <v>9</v>
       </c>
-      <c r="G325" s="28">
+      <c r="G325" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11373,7 +11376,7 @@
       <c r="F326" s="7">
         <v>9</v>
       </c>
-      <c r="G326" s="28">
+      <c r="G326" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11396,7 +11399,7 @@
       <c r="F327" s="7">
         <v>9</v>
       </c>
-      <c r="G327" s="28">
+      <c r="G327" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11419,7 +11422,7 @@
       <c r="F328" s="7">
         <v>9</v>
       </c>
-      <c r="G328" s="28">
+      <c r="G328" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11443,7 +11446,7 @@
       <c r="F329" s="7">
         <v>9</v>
       </c>
-      <c r="G329" s="28">
+      <c r="G329" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -11466,7 +11469,7 @@
       <c r="F330" s="7">
         <v>9</v>
       </c>
-      <c r="G330" s="28">
+      <c r="G330" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11489,7 +11492,7 @@
       <c r="F331" s="7">
         <v>9</v>
       </c>
-      <c r="G331" s="28">
+      <c r="G331" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11514,7 +11517,7 @@
       <c r="F332" s="7">
         <v>9</v>
       </c>
-      <c r="G332" s="28">
+      <c r="G332" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11537,7 +11540,7 @@
       <c r="F333" s="7">
         <v>9</v>
       </c>
-      <c r="G333" s="28">
+      <c r="G333" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11560,7 +11563,7 @@
       <c r="F334" s="7">
         <v>9</v>
       </c>
-      <c r="G334" s="28">
+      <c r="G334" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11584,7 +11587,7 @@
       <c r="F335" s="7">
         <v>9</v>
       </c>
-      <c r="G335" s="28">
+      <c r="G335" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11607,7 +11610,7 @@
       <c r="F336" s="7">
         <v>9</v>
       </c>
-      <c r="G336" s="28">
+      <c r="G336" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11630,7 +11633,7 @@
       <c r="F337" s="7">
         <v>9</v>
       </c>
-      <c r="G337" s="28">
+      <c r="G337" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11654,7 +11657,7 @@
       <c r="F338" s="7">
         <v>9</v>
       </c>
-      <c r="G338" s="28">
+      <c r="G338" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -11677,7 +11680,7 @@
       <c r="F339" s="7">
         <v>9</v>
       </c>
-      <c r="G339" s="28">
+      <c r="G339" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11700,7 +11703,7 @@
       <c r="F340" s="7">
         <v>9</v>
       </c>
-      <c r="G340" s="28">
+      <c r="G340" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11725,7 +11728,7 @@
       <c r="F341" s="7">
         <v>9</v>
       </c>
-      <c r="G341" s="28">
+      <c r="G341" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11748,7 +11751,7 @@
       <c r="F342" s="7">
         <v>9</v>
       </c>
-      <c r="G342" s="28">
+      <c r="G342" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11771,7 +11774,7 @@
       <c r="F343" s="7">
         <v>9</v>
       </c>
-      <c r="G343" s="28">
+      <c r="G343" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11795,7 +11798,7 @@
       <c r="F344" s="7">
         <v>9</v>
       </c>
-      <c r="G344" s="28">
+      <c r="G344" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11818,7 +11821,7 @@
       <c r="F345" s="7">
         <v>9</v>
       </c>
-      <c r="G345" s="28">
+      <c r="G345" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11841,7 +11844,7 @@
       <c r="F346" s="7">
         <v>9</v>
       </c>
-      <c r="G346" s="28">
+      <c r="G346" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11865,7 +11868,7 @@
       <c r="F347" s="7">
         <v>9</v>
       </c>
-      <c r="G347" s="28">
+      <c r="G347" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -11888,7 +11891,7 @@
       <c r="F348" s="7">
         <v>9</v>
       </c>
-      <c r="G348" s="28">
+      <c r="G348" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11911,7 +11914,7 @@
       <c r="F349" s="7">
         <v>9</v>
       </c>
-      <c r="G349" s="28">
+      <c r="G349" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11936,7 +11939,7 @@
       <c r="F350" s="7">
         <v>9</v>
       </c>
-      <c r="G350" s="28">
+      <c r="G350" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11959,7 +11962,7 @@
       <c r="F351" s="7">
         <v>9</v>
       </c>
-      <c r="G351" s="28">
+      <c r="G351" s="26">
         <v>0</v>
       </c>
     </row>
@@ -11982,7 +11985,7 @@
       <c r="F352" s="7">
         <v>9</v>
       </c>
-      <c r="G352" s="28">
+      <c r="G352" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12006,7 +12009,7 @@
       <c r="F353" s="7">
         <v>9</v>
       </c>
-      <c r="G353" s="28">
+      <c r="G353" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12029,7 +12032,7 @@
       <c r="F354" s="7">
         <v>9</v>
       </c>
-      <c r="G354" s="28">
+      <c r="G354" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12052,7 +12055,7 @@
       <c r="F355" s="7">
         <v>9</v>
       </c>
-      <c r="G355" s="28">
+      <c r="G355" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12076,7 +12079,7 @@
       <c r="F356" s="7">
         <v>9</v>
       </c>
-      <c r="G356" s="28">
+      <c r="G356" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -12099,7 +12102,7 @@
       <c r="F357" s="7">
         <v>9</v>
       </c>
-      <c r="G357" s="28">
+      <c r="G357" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12122,7 +12125,7 @@
       <c r="F358" s="7">
         <v>9</v>
       </c>
-      <c r="G358" s="28">
+      <c r="G358" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12145,7 +12148,7 @@
       <c r="F359" s="7">
         <v>10</v>
       </c>
-      <c r="G359" s="28">
+      <c r="G359" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12168,7 +12171,7 @@
       <c r="F360" s="7">
         <v>10</v>
       </c>
-      <c r="G360" s="28">
+      <c r="G360" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12191,7 +12194,7 @@
       <c r="F361" s="7">
         <v>10</v>
       </c>
-      <c r="G361" s="28">
+      <c r="G361" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12214,7 +12217,7 @@
       <c r="F362" s="7">
         <v>10</v>
       </c>
-      <c r="G362" s="28">
+      <c r="G362" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12237,7 +12240,7 @@
       <c r="F363" s="7">
         <v>10</v>
       </c>
-      <c r="G363" s="28">
+      <c r="G363" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12260,7 +12263,7 @@
       <c r="F364" s="7">
         <v>10</v>
       </c>
-      <c r="G364" s="28">
+      <c r="G364" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12285,7 +12288,7 @@
       <c r="F365" s="7">
         <v>10</v>
       </c>
-      <c r="G365" s="28">
+      <c r="G365" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12308,7 +12311,7 @@
       <c r="F366" s="7">
         <v>10</v>
       </c>
-      <c r="G366" s="28">
+      <c r="G366" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12331,7 +12334,7 @@
       <c r="F367" s="7">
         <v>10</v>
       </c>
-      <c r="G367" s="28">
+      <c r="G367" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12355,7 +12358,7 @@
       <c r="F368" s="7">
         <v>10</v>
       </c>
-      <c r="G368" s="28">
+      <c r="G368" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12378,7 +12381,7 @@
       <c r="F369" s="7">
         <v>10</v>
       </c>
-      <c r="G369" s="28">
+      <c r="G369" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12401,7 +12404,7 @@
       <c r="F370" s="7">
         <v>10</v>
       </c>
-      <c r="G370" s="28">
+      <c r="G370" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12425,7 +12428,7 @@
       <c r="F371" s="7">
         <v>10</v>
       </c>
-      <c r="G371" s="28">
+      <c r="G371" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -12448,7 +12451,7 @@
       <c r="F372" s="7">
         <v>10</v>
       </c>
-      <c r="G372" s="28">
+      <c r="G372" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12471,7 +12474,7 @@
       <c r="F373" s="7">
         <v>10</v>
       </c>
-      <c r="G373" s="28">
+      <c r="G373" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12496,7 +12499,7 @@
       <c r="F374" s="7">
         <v>10</v>
       </c>
-      <c r="G374" s="28">
+      <c r="G374" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12519,7 +12522,7 @@
       <c r="F375" s="7">
         <v>10</v>
       </c>
-      <c r="G375" s="28">
+      <c r="G375" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12542,7 +12545,7 @@
       <c r="F376" s="7">
         <v>10</v>
       </c>
-      <c r="G376" s="28">
+      <c r="G376" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12566,7 +12569,7 @@
       <c r="F377" s="7">
         <v>10</v>
       </c>
-      <c r="G377" s="28">
+      <c r="G377" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12589,7 +12592,7 @@
       <c r="F378" s="7">
         <v>10</v>
       </c>
-      <c r="G378" s="28">
+      <c r="G378" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12612,7 +12615,7 @@
       <c r="F379" s="7">
         <v>10</v>
       </c>
-      <c r="G379" s="28">
+      <c r="G379" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12636,7 +12639,7 @@
       <c r="F380" s="7">
         <v>10</v>
       </c>
-      <c r="G380" s="28">
+      <c r="G380" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -12659,7 +12662,7 @@
       <c r="F381" s="7">
         <v>10</v>
       </c>
-      <c r="G381" s="28">
+      <c r="G381" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12682,7 +12685,7 @@
       <c r="F382" s="7">
         <v>10</v>
       </c>
-      <c r="G382" s="28">
+      <c r="G382" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12707,7 +12710,7 @@
       <c r="F383" s="7">
         <v>10</v>
       </c>
-      <c r="G383" s="28">
+      <c r="G383" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12730,7 +12733,7 @@
       <c r="F384" s="7">
         <v>10</v>
       </c>
-      <c r="G384" s="28">
+      <c r="G384" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12753,7 +12756,7 @@
       <c r="F385" s="7">
         <v>10</v>
       </c>
-      <c r="G385" s="28">
+      <c r="G385" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12777,7 +12780,7 @@
       <c r="F386" s="7">
         <v>10</v>
       </c>
-      <c r="G386" s="28">
+      <c r="G386" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12800,7 +12803,7 @@
       <c r="F387" s="7">
         <v>10</v>
       </c>
-      <c r="G387" s="28">
+      <c r="G387" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12823,7 +12826,7 @@
       <c r="F388" s="7">
         <v>10</v>
       </c>
-      <c r="G388" s="28">
+      <c r="G388" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12847,7 +12850,7 @@
       <c r="F389" s="7">
         <v>10</v>
       </c>
-      <c r="G389" s="28">
+      <c r="G389" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -12870,7 +12873,7 @@
       <c r="F390" s="7">
         <v>10</v>
       </c>
-      <c r="G390" s="28">
+      <c r="G390" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12893,7 +12896,7 @@
       <c r="F391" s="7">
         <v>10</v>
       </c>
-      <c r="G391" s="28">
+      <c r="G391" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12918,7 +12921,7 @@
       <c r="F392" s="7">
         <v>10</v>
       </c>
-      <c r="G392" s="28">
+      <c r="G392" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12941,7 +12944,7 @@
       <c r="F393" s="7">
         <v>10</v>
       </c>
-      <c r="G393" s="28">
+      <c r="G393" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12964,7 +12967,7 @@
       <c r="F394" s="7">
         <v>10</v>
       </c>
-      <c r="G394" s="28">
+      <c r="G394" s="26">
         <v>0</v>
       </c>
     </row>
@@ -12988,7 +12991,7 @@
       <c r="F395" s="7">
         <v>10</v>
       </c>
-      <c r="G395" s="28">
+      <c r="G395" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13011,7 +13014,7 @@
       <c r="F396" s="7">
         <v>10</v>
       </c>
-      <c r="G396" s="28">
+      <c r="G396" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13034,7 +13037,7 @@
       <c r="F397" s="7">
         <v>10</v>
       </c>
-      <c r="G397" s="28">
+      <c r="G397" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13058,7 +13061,7 @@
       <c r="F398" s="7">
         <v>10</v>
       </c>
-      <c r="G398" s="28">
+      <c r="G398" s="26">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -13081,7 +13084,7 @@
       <c r="F399" s="7">
         <v>10</v>
       </c>
-      <c r="G399" s="28">
+      <c r="G399" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13104,7 +13107,7 @@
       <c r="F400" s="9">
         <v>10</v>
       </c>
-      <c r="G400" s="28">
+      <c r="G400" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13127,7 +13130,7 @@
       <c r="F401" s="9">
         <v>0</v>
       </c>
-      <c r="G401" s="28">
+      <c r="G401" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13150,7 +13153,7 @@
       <c r="F402" s="3">
         <v>0</v>
       </c>
-      <c r="G402" s="28">
+      <c r="G402" s="26">
         <v>0</v>
       </c>
     </row>
@@ -13272,17 +13275,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="35.7109375" style="8"/>
+    <col min="1" max="1024" width="35.7109375" style="9"/>
+    <col min="1025" max="16384" width="35.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -13300,65 +13304,77 @@
       <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="G1" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="E2" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="24" t="s">
+      <c r="E3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="25">
-        <v>0</v>
+      <c r="E4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -13385,10 +13401,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>235</v>
       </c>
     </row>
@@ -13430,13 +13446,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>238</v>
       </c>
     </row>
